--- a/diamler_notes.xlsx
+++ b/diamler_notes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0F6A4B3-1B7D-5C4C-8B18-12AE92ED4A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64509497-AF48-904C-8B08-28B8CC321AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{FB65F0B6-2272-0E41-92CA-96950A521FCA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{FB65F0B6-2272-0E41-92CA-96950A521FCA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ConfusionMatrix" sheetId="1" r:id="rId1"/>
+    <sheet name="Hypothesis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>Of the total 75 actual cases, how many positive results did ML detect-&gt; Recall</t>
   </si>
@@ -151,6 +152,144 @@
   </si>
   <si>
     <t>known results (scoring dataset)</t>
+  </si>
+  <si>
+    <t>SAMPLING</t>
+  </si>
+  <si>
+    <t>H0</t>
+  </si>
+  <si>
+    <t>Bears</t>
+  </si>
+  <si>
+    <t>Monkeys</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Bears like Honey</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Bears don’t like honey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>like honey</t>
+  </si>
+  <si>
+    <t>like banana</t>
+  </si>
+  <si>
+    <t>Actual Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(row sum * col sum) / total </t>
+  </si>
+  <si>
+    <t>Total =</t>
+  </si>
+  <si>
+    <t>bears</t>
+  </si>
+  <si>
+    <t>monkeys</t>
+  </si>
+  <si>
+    <t>Chi-Squared Formulae</t>
+  </si>
+  <si>
+    <t>Chi-Squared Matrix</t>
+  </si>
+  <si>
+    <t>( actual- Expectation)^2 / Expectation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expecation </t>
+  </si>
+  <si>
+    <t>Chi-Squared Value</t>
+  </si>
+  <si>
+    <t>absolute value of this matrix</t>
+  </si>
+  <si>
+    <t>Sum of all elements in the matrix!</t>
+  </si>
+  <si>
+    <t>We're going to play around with our diff Hypothesis (H0… HN)</t>
+  </si>
+  <si>
+    <t>We had a total of 2 voters (Monkeys and Bears) and 2 options (Banana and Honey)</t>
+  </si>
+  <si>
+    <t>To measure the importance, we remove one of them from the equation, and check out if our expectations and H0 still holds valid!</t>
+  </si>
+  <si>
+    <t>Degree of Freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; with both Monkeys and Bears </t>
+  </si>
+  <si>
+    <t>&gt; with only Monkeys</t>
+  </si>
+  <si>
+    <t>&gt; with only bears</t>
+  </si>
+  <si>
+    <t>&gt; both banana and honey</t>
+  </si>
+  <si>
+    <t>&gt; only banana</t>
+  </si>
+  <si>
+    <t>&gt; only honey</t>
+  </si>
+  <si>
+    <t>If more than 2</t>
+  </si>
+  <si>
+    <t>Monkeys, Bears, Bees</t>
+  </si>
+  <si>
+    <t>Honey, Banana, Apples</t>
+  </si>
+  <si>
+    <t>Degress of Freedom</t>
+  </si>
+  <si>
+    <t>&gt; all 3</t>
+  </si>
+  <si>
+    <t>&gt; only Monkeys and Bears</t>
+  </si>
+  <si>
+    <t>&gt; only Moneys and bees</t>
+  </si>
+  <si>
+    <t>&gt; only bears and bees</t>
+  </si>
+  <si>
+    <t>&gt; only Honey and Banana</t>
+  </si>
+  <si>
+    <t>&gt; only Banana and Apples</t>
+  </si>
+  <si>
+    <t>&gt; only Apples and Honey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degree of freedom = (row-1) * (col-1) </t>
   </si>
 </sst>
 </file>
@@ -519,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26306831-E5AF-F546-B7BE-5D0DC2D31F72}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -718,4 +857,311 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D58D60-144D-4042-9B43-63C6A5431553}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <f>C5+C6</f>
+        <v>110</v>
+      </c>
+      <c r="D8">
+        <f>D5+D6</f>
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <f>C5+D5+C6+D6</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <f>(C8*F5)/G8</f>
+        <v>57.89473684210526</v>
+      </c>
+      <c r="D11">
+        <f>(D8*F5)/G8</f>
+        <v>42.10526315789474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <f>(C8*F6)/G8</f>
+        <v>52.10526315789474</v>
+      </c>
+      <c r="D12">
+        <f>(D8*F6)/G8</f>
+        <v>37.89473684210526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <f>POWER(C5-C11,2) /  C11</f>
+        <v>17.803827751196177</v>
+      </c>
+      <c r="D15">
+        <f>POWER(D5-D11,2) /  D11</f>
+        <v>24.480263157894743</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <f>POWER(C6-C12,2) /  C12</f>
+        <v>19.782030834662418</v>
+      </c>
+      <c r="D16">
+        <f>POWER(D6-D12,2) /  D12</f>
+        <v>27.200292397660828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f>C15+C16+D15+D16</f>
+        <v>89.266414141414174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34">
+        <f xml:space="preserve"> (2 -1) * (2- 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>